--- a/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3524" uniqueCount="1582">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3530" uniqueCount="1586">
   <si>
     <r>
       <rPr>
@@ -6031,6 +6031,18 @@
     <t>iam_menu_permission-657</t>
   </si>
   <si>
+    <t>iam_menu_permission-658</t>
+  </si>
+  <si>
+    <t>workflow-service.organization-invoke-workflow-convert-c7n.initWorkflow</t>
+  </si>
+  <si>
+    <t>iam_menu_permission-659</t>
+  </si>
+  <si>
+    <t>workflow-service.organization-invoke-workflow-convert-c7n.checkInitWorkflow</t>
+  </si>
+  <si>
     <t>2020-09-11</t>
   </si>
   <si>
@@ -6491,8 +6503,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -6564,13 +6576,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -6580,43 +6585,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6647,7 +6628,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6656,6 +6637,21 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6676,6 +6672,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -6685,7 +6704,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -6695,13 +6714,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6790,7 +6802,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6802,13 +6820,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6820,7 +6850,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6832,43 +6898,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6880,7 +6916,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6892,19 +6940,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6922,55 +6982,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7077,26 +7089,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7112,21 +7124,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7151,6 +7148,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -7165,160 +7186,151 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -8031,8 +8043,8 @@
   <sheetPr/>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G52" workbookViewId="0">
-      <selection activeCell="M63" sqref="M63"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F58" sqref="F58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -8043,7 +8055,7 @@
     <col min="10" max="10" width="17.0714285714286" customWidth="1"/>
     <col min="11" max="11" width="30.5714285714286" customWidth="1"/>
     <col min="16" max="16" width="21.5714285714286" customWidth="1"/>
-    <col min="19" max="19" width="34.0714285714286" customWidth="1"/>
+    <col min="19" max="19" width="111.714285714286" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11064,10 +11076,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H657"/>
+  <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="C640" workbookViewId="0">
+      <selection activeCell="F661" sqref="F661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -20876,6 +20888,36 @@
         <v>1199</v>
       </c>
       <c r="H657" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="658" spans="5:8">
+      <c r="E658" t="s">
+        <v>1431</v>
+      </c>
+      <c r="F658" t="str">
+        <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
+      </c>
+      <c r="G658" t="s">
+        <v>1432</v>
+      </c>
+      <c r="H658" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="659" spans="5:8">
+      <c r="E659" t="s">
+        <v>1433</v>
+      </c>
+      <c r="F659" t="str">
+        <f>菜单SAAS版!$E$59</f>
+        <v>iam_menu-59</v>
+      </c>
+      <c r="G659" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H659" t="s">
         <v>81</v>
       </c>
     </row>
@@ -20936,16 +20978,16 @@
     <row r="6" customFormat="1"/>
     <row r="7" customFormat="1" spans="1:25">
       <c r="A7" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="B7" t="s">
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1432</v>
+        <v>1436</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1433</v>
+        <v>1437</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -20960,72 +21002,72 @@
         <v>55</v>
       </c>
       <c r="I7" t="s">
-        <v>1434</v>
+        <v>1438</v>
       </c>
       <c r="J7" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>67</v>
       </c>
       <c r="L7" t="s">
-        <v>1436</v>
+        <v>1440</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>1437</v>
+        <v>1441</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>1438</v>
+        <v>1442</v>
       </c>
       <c r="O7" t="s">
-        <v>1439</v>
+        <v>1443</v>
       </c>
       <c r="P7" t="s">
-        <v>1440</v>
+        <v>1444</v>
       </c>
       <c r="Q7" t="s">
-        <v>1441</v>
+        <v>1445</v>
       </c>
       <c r="R7" t="s">
-        <v>1442</v>
+        <v>1446</v>
       </c>
       <c r="S7" t="s">
-        <v>1443</v>
+        <v>1447</v>
       </c>
       <c r="T7" t="s">
-        <v>1444</v>
+        <v>1448</v>
       </c>
       <c r="U7" t="s">
         <v>68</v>
       </c>
       <c r="V7" t="s">
-        <v>1445</v>
+        <v>1449</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>1446</v>
+        <v>1450</v>
       </c>
       <c r="X7" t="s">
-        <v>1447</v>
+        <v>1451</v>
       </c>
       <c r="Y7" t="s">
-        <v>1448</v>
+        <v>1452</v>
       </c>
     </row>
     <row r="8" customFormat="1" spans="5:23">
       <c r="E8" t="s">
-        <v>1449</v>
+        <v>1453</v>
       </c>
       <c r="F8" t="s">
-        <v>1450</v>
+        <v>1454</v>
       </c>
       <c r="G8" t="s">
-        <v>1451</v>
+        <v>1455</v>
       </c>
       <c r="H8" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="I8" t="s">
-        <v>1453</v>
+        <v>1457</v>
       </c>
       <c r="J8" t="s">
         <v>286</v>
@@ -21061,10 +21103,10 @@
         <v>81</v>
       </c>
       <c r="U8" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="V8" t="s">
-        <v>1452</v>
+        <v>1456</v>
       </c>
       <c r="W8" t="s">
         <v>81</v>
@@ -21072,19 +21114,19 @@
     </row>
     <row r="9" customFormat="1" spans="5:23">
       <c r="E9" t="s">
-        <v>1454</v>
+        <v>1458</v>
       </c>
       <c r="F9" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="G9" t="s">
-        <v>1456</v>
+        <v>1460</v>
       </c>
       <c r="H9" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="I9" t="s">
-        <v>1458</v>
+        <v>1462</v>
       </c>
       <c r="J9" t="s">
         <v>80</v>
@@ -21120,10 +21162,10 @@
         <v>81</v>
       </c>
       <c r="U9" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="V9" t="s">
-        <v>1457</v>
+        <v>1461</v>
       </c>
       <c r="W9" t="s">
         <v>81</v>
@@ -21131,16 +21173,16 @@
     </row>
     <row r="10" customFormat="1" spans="5:25">
       <c r="E10" t="s">
-        <v>1459</v>
+        <v>1463</v>
       </c>
       <c r="F10" t="s">
-        <v>1460</v>
+        <v>1464</v>
       </c>
       <c r="G10" t="s">
-        <v>1461</v>
+        <v>1465</v>
       </c>
       <c r="H10" t="s">
-        <v>1462</v>
+        <v>1466</v>
       </c>
       <c r="J10" t="s">
         <v>80</v>
@@ -21177,33 +21219,33 @@
         <v>81</v>
       </c>
       <c r="U10" t="s">
-        <v>1463</v>
+        <v>1467</v>
       </c>
       <c r="V10" t="s">
-        <v>1464</v>
+        <v>1468</v>
       </c>
       <c r="W10" t="s">
         <v>81</v>
       </c>
       <c r="X10" t="s">
-        <v>1455</v>
+        <v>1459</v>
       </c>
       <c r="Y10" t="s">
-        <v>1465</v>
+        <v>1469</v>
       </c>
     </row>
     <row r="11" customFormat="1" spans="5:25">
       <c r="E11" t="s">
-        <v>1466</v>
+        <v>1470</v>
       </c>
       <c r="F11" t="s">
-        <v>1467</v>
+        <v>1471</v>
       </c>
       <c r="G11" t="s">
-        <v>1468</v>
+        <v>1472</v>
       </c>
       <c r="H11" t="s">
-        <v>1469</v>
+        <v>1473</v>
       </c>
       <c r="J11" t="s">
         <v>80</v>
@@ -21240,52 +21282,52 @@
         <v>81</v>
       </c>
       <c r="U11" t="s">
-        <v>1470</v>
+        <v>1474</v>
       </c>
       <c r="V11" t="s">
-        <v>1471</v>
+        <v>1475</v>
       </c>
       <c r="W11" t="s">
         <v>81</v>
       </c>
       <c r="X11" t="s">
-        <v>1472</v>
+        <v>1476</v>
       </c>
       <c r="Y11" t="s">
-        <v>1473</v>
+        <v>1477</v>
       </c>
     </row>
     <row r="12" customFormat="1"/>
     <row r="13" customFormat="1" spans="1:11">
       <c r="A13" t="s">
-        <v>1431</v>
+        <v>1435</v>
       </c>
       <c r="B13" t="s">
         <v>51</v>
       </c>
       <c r="C13" t="s">
-        <v>1474</v>
+        <v>1478</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>1475</v>
+        <v>1479</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>1476</v>
+        <v>1480</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1477</v>
+        <v>1481</v>
       </c>
       <c r="H13" t="s">
-        <v>1478</v>
+        <v>1482</v>
       </c>
       <c r="I13" t="s">
-        <v>1479</v>
+        <v>1483</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="K13" t="s">
         <v>344</v>
@@ -21293,7 +21335,7 @@
     </row>
     <row r="14" customFormat="1" spans="5:11">
       <c r="E14" t="s">
-        <v>1481</v>
+        <v>1485</v>
       </c>
       <c r="F14" t="str">
         <f>角色权限!$E$9</f>
@@ -21304,13 +21346,13 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H14" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I14" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J14" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K14" t="s">
         <v>81</v>
@@ -21318,7 +21360,7 @@
     </row>
     <row r="15" customFormat="1" spans="5:11">
       <c r="E15" t="s">
-        <v>1485</v>
+        <v>1489</v>
       </c>
       <c r="F15" t="str">
         <f>角色权限!$E$10</f>
@@ -21329,13 +21371,13 @@
         <v>iam_menu-11</v>
       </c>
       <c r="H15" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I15" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J15" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K15" t="s">
         <v>81</v>
@@ -21343,7 +21385,7 @@
     </row>
     <row r="16" customFormat="1" spans="5:11">
       <c r="E16" t="s">
-        <v>1486</v>
+        <v>1490</v>
       </c>
       <c r="F16" t="str">
         <f>角色权限!$E$9</f>
@@ -21354,13 +21396,13 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H16" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I16" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J16" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K16" t="s">
         <v>81</v>
@@ -21368,7 +21410,7 @@
     </row>
     <row r="17" customFormat="1" spans="5:11">
       <c r="E17" t="s">
-        <v>1487</v>
+        <v>1491</v>
       </c>
       <c r="F17" t="str">
         <f>角色权限!$E$10</f>
@@ -21379,13 +21421,13 @@
         <v>iam_menu-13</v>
       </c>
       <c r="H17" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I17" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J17" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -21393,7 +21435,7 @@
     </row>
     <row r="18" customFormat="1" spans="5:11">
       <c r="E18" t="s">
-        <v>1488</v>
+        <v>1492</v>
       </c>
       <c r="F18" t="str">
         <f>角色权限!$E$9</f>
@@ -21404,13 +21446,13 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H18" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I18" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J18" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K18" t="s">
         <v>81</v>
@@ -21418,7 +21460,7 @@
     </row>
     <row r="19" customFormat="1" spans="5:11">
       <c r="E19" t="s">
-        <v>1489</v>
+        <v>1493</v>
       </c>
       <c r="F19" t="str">
         <f>角色权限!$E$10</f>
@@ -21429,13 +21471,13 @@
         <v>iam_menu-15</v>
       </c>
       <c r="H19" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I19" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J19" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K19" t="s">
         <v>81</v>
@@ -21443,7 +21485,7 @@
     </row>
     <row r="20" customFormat="1" spans="5:11">
       <c r="E20" t="s">
-        <v>1490</v>
+        <v>1494</v>
       </c>
       <c r="F20" t="str">
         <f>角色权限!$E$9</f>
@@ -21454,13 +21496,13 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H20" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I20" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J20" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K20" t="s">
         <v>81</v>
@@ -21468,7 +21510,7 @@
     </row>
     <row r="21" customFormat="1" spans="5:11">
       <c r="E21" t="s">
-        <v>1491</v>
+        <v>1495</v>
       </c>
       <c r="F21" t="str">
         <f>角色权限!$E$10</f>
@@ -21479,13 +21521,13 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H21" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I21" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J21" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K21" t="s">
         <v>81</v>
@@ -21493,7 +21535,7 @@
     </row>
     <row r="22" customFormat="1" spans="5:11">
       <c r="E22" t="s">
-        <v>1492</v>
+        <v>1496</v>
       </c>
       <c r="F22" t="str">
         <f>角色权限!$E$9</f>
@@ -21504,13 +21546,13 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H22" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I22" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J22" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K22" t="s">
         <v>81</v>
@@ -21518,7 +21560,7 @@
     </row>
     <row r="23" customFormat="1" spans="5:11">
       <c r="E23" t="s">
-        <v>1493</v>
+        <v>1497</v>
       </c>
       <c r="F23" t="str">
         <f>角色权限!$E$10</f>
@@ -21529,13 +21571,13 @@
         <v>iam_menu-21</v>
       </c>
       <c r="H23" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I23" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J23" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K23" t="s">
         <v>81</v>
@@ -21543,7 +21585,7 @@
     </row>
     <row r="24" customFormat="1" spans="5:11">
       <c r="E24" t="s">
-        <v>1494</v>
+        <v>1498</v>
       </c>
       <c r="F24" t="str">
         <f>角色权限!$E$9</f>
@@ -21554,13 +21596,13 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H24" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I24" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J24" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K24" t="s">
         <v>81</v>
@@ -21568,7 +21610,7 @@
     </row>
     <row r="25" customFormat="1" spans="5:11">
       <c r="E25" t="s">
-        <v>1495</v>
+        <v>1499</v>
       </c>
       <c r="F25" t="str">
         <f>角色权限!$E$10</f>
@@ -21579,13 +21621,13 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H25" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I25" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J25" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K25" t="s">
         <v>81</v>
@@ -21593,7 +21635,7 @@
     </row>
     <row r="26" customFormat="1" spans="5:11">
       <c r="E26" t="s">
-        <v>1496</v>
+        <v>1500</v>
       </c>
       <c r="F26" t="str">
         <f>角色权限!$E$9</f>
@@ -21604,13 +21646,13 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H26" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I26" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J26" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K26" t="s">
         <v>81</v>
@@ -21618,7 +21660,7 @@
     </row>
     <row r="27" customFormat="1" spans="5:11">
       <c r="E27" t="s">
-        <v>1497</v>
+        <v>1501</v>
       </c>
       <c r="F27" t="str">
         <f>角色权限!$E$10</f>
@@ -21629,13 +21671,13 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H27" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I27" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J27" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K27" t="s">
         <v>81</v>
@@ -21643,7 +21685,7 @@
     </row>
     <row r="28" customFormat="1" spans="5:11">
       <c r="E28" t="s">
-        <v>1498</v>
+        <v>1502</v>
       </c>
       <c r="F28" t="str">
         <f>角色权限!$E$9</f>
@@ -21654,13 +21696,13 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H28" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I28" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J28" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K28" t="s">
         <v>81</v>
@@ -21668,7 +21710,7 @@
     </row>
     <row r="29" customFormat="1" spans="5:11">
       <c r="E29" t="s">
-        <v>1499</v>
+        <v>1503</v>
       </c>
       <c r="F29" t="str">
         <f>角色权限!$E$10</f>
@@ -21679,13 +21721,13 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H29" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I29" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J29" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K29" t="s">
         <v>81</v>
@@ -21693,7 +21735,7 @@
     </row>
     <row r="30" customFormat="1" spans="5:11">
       <c r="E30" t="s">
-        <v>1500</v>
+        <v>1504</v>
       </c>
       <c r="F30" t="str">
         <f>角色权限!$E$9</f>
@@ -21704,13 +21746,13 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H30" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I30" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J30" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K30" t="s">
         <v>81</v>
@@ -21718,7 +21760,7 @@
     </row>
     <row r="31" customFormat="1" spans="5:11">
       <c r="E31" t="s">
-        <v>1501</v>
+        <v>1505</v>
       </c>
       <c r="F31" t="str">
         <f>角色权限!$E$10</f>
@@ -21729,13 +21771,13 @@
         <v>iam_menu-29</v>
       </c>
       <c r="H31" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I31" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J31" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K31" t="s">
         <v>81</v>
@@ -21743,7 +21785,7 @@
     </row>
     <row r="32" customFormat="1" spans="5:11">
       <c r="E32" t="s">
-        <v>1502</v>
+        <v>1506</v>
       </c>
       <c r="F32" t="str">
         <f>角色权限!$E$9</f>
@@ -21754,13 +21796,13 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H32" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I32" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J32" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K32" t="s">
         <v>81</v>
@@ -21768,7 +21810,7 @@
     </row>
     <row r="33" customFormat="1" spans="5:11">
       <c r="E33" t="s">
-        <v>1503</v>
+        <v>1507</v>
       </c>
       <c r="F33" t="str">
         <f>角色权限!$E$10</f>
@@ -21779,13 +21821,13 @@
         <v>iam_menu-31</v>
       </c>
       <c r="H33" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I33" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J33" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K33" t="s">
         <v>81</v>
@@ -21793,7 +21835,7 @@
     </row>
     <row r="34" customFormat="1" spans="5:11">
       <c r="E34" t="s">
-        <v>1504</v>
+        <v>1508</v>
       </c>
       <c r="F34" t="str">
         <f>角色权限!$E$9</f>
@@ -21804,13 +21846,13 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H34" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I34" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J34" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K34" t="s">
         <v>81</v>
@@ -21818,7 +21860,7 @@
     </row>
     <row r="35" customFormat="1" spans="5:11">
       <c r="E35" t="s">
-        <v>1505</v>
+        <v>1509</v>
       </c>
       <c r="F35" t="str">
         <f>角色权限!$E$10</f>
@@ -21829,13 +21871,13 @@
         <v>iam_menu-33</v>
       </c>
       <c r="H35" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I35" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J35" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K35" t="s">
         <v>81</v>
@@ -21843,7 +21885,7 @@
     </row>
     <row r="36" customFormat="1" spans="5:11">
       <c r="E36" t="s">
-        <v>1506</v>
+        <v>1510</v>
       </c>
       <c r="F36" t="str">
         <f>角色权限!$E$9</f>
@@ -21854,13 +21896,13 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H36" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I36" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J36" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K36" t="s">
         <v>81</v>
@@ -21868,7 +21910,7 @@
     </row>
     <row r="37" customFormat="1" spans="5:11">
       <c r="E37" t="s">
-        <v>1507</v>
+        <v>1511</v>
       </c>
       <c r="F37" t="str">
         <f>角色权限!$E$10</f>
@@ -21879,13 +21921,13 @@
         <v>iam_menu-35</v>
       </c>
       <c r="H37" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I37" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J37" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K37" t="s">
         <v>81</v>
@@ -21893,7 +21935,7 @@
     </row>
     <row r="38" customFormat="1" spans="5:11">
       <c r="E38" t="s">
-        <v>1508</v>
+        <v>1512</v>
       </c>
       <c r="F38" t="str">
         <f>角色权限!$E$9</f>
@@ -21904,13 +21946,13 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H38" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I38" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J38" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K38" t="s">
         <v>81</v>
@@ -21918,7 +21960,7 @@
     </row>
     <row r="39" customFormat="1" spans="5:11">
       <c r="E39" t="s">
-        <v>1509</v>
+        <v>1513</v>
       </c>
       <c r="F39" t="str">
         <f>角色权限!$E$10</f>
@@ -21929,13 +21971,13 @@
         <v>iam_menu-37</v>
       </c>
       <c r="H39" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I39" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J39" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K39" t="s">
         <v>81</v>
@@ -21943,7 +21985,7 @@
     </row>
     <row r="40" customFormat="1" spans="5:11">
       <c r="E40" t="s">
-        <v>1510</v>
+        <v>1514</v>
       </c>
       <c r="F40" t="str">
         <f>角色权限!$E$9</f>
@@ -21954,13 +21996,13 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H40" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I40" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J40" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K40" t="s">
         <v>81</v>
@@ -21968,7 +22010,7 @@
     </row>
     <row r="41" customFormat="1" spans="5:11">
       <c r="E41" t="s">
-        <v>1511</v>
+        <v>1515</v>
       </c>
       <c r="F41" t="str">
         <f>角色权限!$E$10</f>
@@ -21979,13 +22021,13 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H41" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I41" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J41" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K41" t="s">
         <v>81</v>
@@ -21993,7 +22035,7 @@
     </row>
     <row r="42" customFormat="1" spans="5:11">
       <c r="E42" t="s">
-        <v>1512</v>
+        <v>1516</v>
       </c>
       <c r="F42" t="str">
         <f>角色权限!$E$9</f>
@@ -22004,13 +22046,13 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H42" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I42" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J42" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K42" t="s">
         <v>81</v>
@@ -22018,7 +22060,7 @@
     </row>
     <row r="43" customFormat="1" spans="5:11">
       <c r="E43" t="s">
-        <v>1513</v>
+        <v>1517</v>
       </c>
       <c r="F43" t="str">
         <f>角色权限!$E$10</f>
@@ -22029,13 +22071,13 @@
         <v>iam_menu-43</v>
       </c>
       <c r="H43" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I43" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J43" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K43" t="s">
         <v>81</v>
@@ -22043,7 +22085,7 @@
     </row>
     <row r="44" customFormat="1" spans="5:11">
       <c r="E44" t="s">
-        <v>1514</v>
+        <v>1518</v>
       </c>
       <c r="F44" t="str">
         <f>角色权限!$E$9</f>
@@ -22054,13 +22096,13 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H44" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I44" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J44" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K44" t="s">
         <v>81</v>
@@ -22068,7 +22110,7 @@
     </row>
     <row r="45" customFormat="1" spans="5:11">
       <c r="E45" t="s">
-        <v>1515</v>
+        <v>1519</v>
       </c>
       <c r="F45" t="str">
         <f>角色权限!$E$10</f>
@@ -22079,13 +22121,13 @@
         <v>iam_menu-39</v>
       </c>
       <c r="H45" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I45" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J45" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K45" t="s">
         <v>81</v>
@@ -22093,7 +22135,7 @@
     </row>
     <row r="46" customFormat="1" spans="5:11">
       <c r="E46" t="s">
-        <v>1516</v>
+        <v>1520</v>
       </c>
       <c r="F46" t="str">
         <f>角色权限!$E$9</f>
@@ -22104,13 +22146,13 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H46" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I46" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J46" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K46" t="s">
         <v>81</v>
@@ -22118,7 +22160,7 @@
     </row>
     <row r="47" customFormat="1" spans="5:11">
       <c r="E47" t="s">
-        <v>1517</v>
+        <v>1521</v>
       </c>
       <c r="F47" t="str">
         <f>角色权限!$E$10</f>
@@ -22129,13 +22171,13 @@
         <v>iam_menu-40</v>
       </c>
       <c r="H47" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I47" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J47" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K47" t="s">
         <v>81</v>
@@ -22143,7 +22185,7 @@
     </row>
     <row r="48" customFormat="1" spans="5:11">
       <c r="E48" t="s">
-        <v>1518</v>
+        <v>1522</v>
       </c>
       <c r="F48" t="str">
         <f>角色权限!$E$9</f>
@@ -22154,13 +22196,13 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H48" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I48" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J48" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K48" t="s">
         <v>81</v>
@@ -22168,7 +22210,7 @@
     </row>
     <row r="49" customFormat="1" spans="5:11">
       <c r="E49" t="s">
-        <v>1519</v>
+        <v>1523</v>
       </c>
       <c r="F49" t="str">
         <f>角色权限!$E$10</f>
@@ -22179,13 +22221,13 @@
         <v>iam_menu-41</v>
       </c>
       <c r="H49" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I49" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J49" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K49" t="s">
         <v>81</v>
@@ -22193,7 +22235,7 @@
     </row>
     <row r="50" customFormat="1" spans="5:11">
       <c r="E50" t="s">
-        <v>1520</v>
+        <v>1524</v>
       </c>
       <c r="F50" t="str">
         <f>角色权限!$E$9</f>
@@ -22204,13 +22246,13 @@
         <v>iam_menu-54</v>
       </c>
       <c r="H50" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I50" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J50" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K50" t="s">
         <v>81</v>
@@ -22218,7 +22260,7 @@
     </row>
     <row r="51" customFormat="1" spans="5:11">
       <c r="E51" t="s">
-        <v>1521</v>
+        <v>1525</v>
       </c>
       <c r="F51" t="str">
         <f>角色权限!$E$10</f>
@@ -22229,13 +22271,13 @@
         <v>iam_menu-54</v>
       </c>
       <c r="H51" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I51" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J51" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K51" t="s">
         <v>81</v>
@@ -22243,7 +22285,7 @@
     </row>
     <row r="52" customFormat="1" spans="5:11">
       <c r="E52" t="s">
-        <v>1522</v>
+        <v>1526</v>
       </c>
       <c r="F52" t="str">
         <f>角色权限!$E$9</f>
@@ -22254,13 +22296,13 @@
         <v>iam_menu-55</v>
       </c>
       <c r="H52" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I52" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J52" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K52" t="s">
         <v>81</v>
@@ -22268,7 +22310,7 @@
     </row>
     <row r="53" customFormat="1" spans="5:11">
       <c r="E53" t="s">
-        <v>1523</v>
+        <v>1527</v>
       </c>
       <c r="F53" t="str">
         <f>角色权限!$E$10</f>
@@ -22279,13 +22321,13 @@
         <v>iam_menu-55</v>
       </c>
       <c r="H53" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I53" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J53" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K53" t="s">
         <v>81</v>
@@ -22293,7 +22335,7 @@
     </row>
     <row r="54" customFormat="1" spans="5:11">
       <c r="E54" t="s">
-        <v>1524</v>
+        <v>1528</v>
       </c>
       <c r="F54" t="str">
         <f>角色权限!$E$8</f>
@@ -22304,13 +22346,13 @@
         <v>iam_menu-47</v>
       </c>
       <c r="H54" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I54" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J54" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K54" t="s">
         <v>81</v>
@@ -22318,7 +22360,7 @@
     </row>
     <row r="55" customFormat="1" spans="5:11">
       <c r="E55" t="s">
-        <v>1525</v>
+        <v>1529</v>
       </c>
       <c r="F55" t="str">
         <f>角色权限!$E$8</f>
@@ -22329,13 +22371,13 @@
         <v>iam_menu-50</v>
       </c>
       <c r="H55" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I55" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J55" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K55" t="s">
         <v>81</v>
@@ -22343,7 +22385,7 @@
     </row>
     <row r="56" customFormat="1" spans="5:11">
       <c r="E56" t="s">
-        <v>1526</v>
+        <v>1530</v>
       </c>
       <c r="F56" t="str">
         <f>角色权限!$E$8</f>
@@ -22354,13 +22396,13 @@
         <v>iam_menu-52</v>
       </c>
       <c r="H56" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I56" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J56" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K56" t="s">
         <v>81</v>
@@ -22368,7 +22410,7 @@
     </row>
     <row r="57" customFormat="1" spans="5:11">
       <c r="E57" t="s">
-        <v>1527</v>
+        <v>1531</v>
       </c>
       <c r="F57" t="str">
         <f>角色权限!$E$8</f>
@@ -22379,13 +22421,13 @@
         <v>iam_menu-56</v>
       </c>
       <c r="H57" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I57" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J57" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K57" t="s">
         <v>81</v>
@@ -22393,7 +22435,7 @@
     </row>
     <row r="58" customFormat="1" spans="5:11">
       <c r="E58" t="s">
-        <v>1528</v>
+        <v>1532</v>
       </c>
       <c r="F58" t="str">
         <f>角色权限!$E$11</f>
@@ -22404,13 +22446,13 @@
         <v>iam_menu-19</v>
       </c>
       <c r="H58" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I58" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J58" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K58" t="s">
         <v>81</v>
@@ -22418,7 +22460,7 @@
     </row>
     <row r="59" customFormat="1" spans="5:11">
       <c r="E59" t="s">
-        <v>1529</v>
+        <v>1533</v>
       </c>
       <c r="F59" t="str">
         <f>角色权限!$E$11</f>
@@ -22429,13 +22471,13 @@
         <v>iam_menu-23</v>
       </c>
       <c r="H59" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I59" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J59" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K59" t="s">
         <v>81</v>
@@ -22443,7 +22485,7 @@
     </row>
     <row r="60" customFormat="1" spans="5:11">
       <c r="E60" t="s">
-        <v>1530</v>
+        <v>1534</v>
       </c>
       <c r="F60" t="str">
         <f>角色权限!$E$11</f>
@@ -22454,13 +22496,13 @@
         <v>iam_menu-25</v>
       </c>
       <c r="H60" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I60" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J60" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K60" t="s">
         <v>81</v>
@@ -22468,7 +22510,7 @@
     </row>
     <row r="61" customFormat="1" spans="5:11">
       <c r="E61" t="s">
-        <v>1531</v>
+        <v>1535</v>
       </c>
       <c r="F61" t="str">
         <f>角色权限!$E$11</f>
@@ -22479,13 +22521,13 @@
         <v>iam_menu-26</v>
       </c>
       <c r="H61" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I61" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J61" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K61" t="s">
         <v>81</v>
@@ -22493,7 +22535,7 @@
     </row>
     <row r="62" customFormat="1" spans="5:11">
       <c r="E62" t="s">
-        <v>1532</v>
+        <v>1536</v>
       </c>
       <c r="F62" t="str">
         <f>角色权限!$E$9</f>
@@ -22504,13 +22546,13 @@
         <v>iam_menu-59</v>
       </c>
       <c r="H62" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I62" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J62" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K62" t="s">
         <v>81</v>
@@ -22518,7 +22560,7 @@
     </row>
     <row r="63" customFormat="1" spans="5:11">
       <c r="E63" t="s">
-        <v>1533</v>
+        <v>1537</v>
       </c>
       <c r="F63" t="str">
         <f>角色权限!$E$10</f>
@@ -22529,13 +22571,13 @@
         <v>iam_menu-59</v>
       </c>
       <c r="H63" t="s">
-        <v>1482</v>
+        <v>1486</v>
       </c>
       <c r="I63" t="s">
-        <v>1483</v>
+        <v>1487</v>
       </c>
       <c r="J63" t="s">
-        <v>1484</v>
+        <v>1488</v>
       </c>
       <c r="K63" t="s">
         <v>81</v>
@@ -22597,66 +22639,66 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1534</v>
+        <v>1538</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1535</v>
+        <v>1539</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1536</v>
+        <v>1540</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1480</v>
+        <v>1484</v>
       </c>
       <c r="H7" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="I7" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="J7" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="K7" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="L7" t="s">
-        <v>1540</v>
+        <v>1544</v>
       </c>
       <c r="M7" t="s">
-        <v>1541</v>
+        <v>1545</v>
       </c>
       <c r="N7" t="s">
-        <v>1542</v>
+        <v>1546</v>
       </c>
       <c r="O7" t="s">
-        <v>1543</v>
+        <v>1547</v>
       </c>
     </row>
     <row r="8" spans="5:15">
       <c r="E8" t="s">
-        <v>1544</v>
+        <v>1548</v>
       </c>
       <c r="F8" t="s">
-        <v>1545</v>
+        <v>1549</v>
       </c>
       <c r="G8" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="H8" t="s">
         <v>84</v>
       </c>
       <c r="I8" t="s">
-        <v>1547</v>
+        <v>1551</v>
       </c>
       <c r="J8" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="K8" t="s">
-        <v>1548</v>
+        <v>1552</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -22670,25 +22712,25 @@
     </row>
     <row r="9" customFormat="1" spans="5:15">
       <c r="E9" t="s">
-        <v>1549</v>
+        <v>1553</v>
       </c>
       <c r="F9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G9" t="s">
         <v>1550</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1546</v>
       </c>
       <c r="H9" t="s">
         <v>84</v>
       </c>
       <c r="I9" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="J9" t="s">
-        <v>1552</v>
+        <v>1556</v>
       </c>
       <c r="K9" t="s">
-        <v>1550</v>
+        <v>1554</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -22708,33 +22750,33 @@
         <v>51</v>
       </c>
       <c r="C11" t="s">
-        <v>1553</v>
+        <v>1557</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>1554</v>
+        <v>1558</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>1555</v>
+        <v>1559</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>1556</v>
+        <v>1560</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>1557</v>
+        <v>1561</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>1558</v>
+        <v>1562</v>
       </c>
       <c r="I11" t="s">
-        <v>1559</v>
+        <v>1563</v>
       </c>
     </row>
     <row r="12" spans="5:9">
       <c r="E12" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F12" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G12" t="str">
         <f>菜单SAAS版!$E$44</f>
@@ -22745,15 +22787,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I12" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="13" spans="5:9">
       <c r="E13" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F13" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G13" t="str">
         <f>菜单SAAS版!$E$48</f>
@@ -22764,15 +22806,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I13" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="14" spans="5:9">
       <c r="E14" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F14" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G14" t="str">
         <f>菜单SAAS版!$E$53</f>
@@ -22783,15 +22825,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I14" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="15" spans="5:9">
       <c r="E15" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F15" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G15" t="str">
         <f>菜单SAAS版!$E$56</f>
@@ -22802,15 +22844,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I15" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="16" spans="5:9">
       <c r="E16" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F16" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G16" t="str">
         <f>菜单SAAS版!$E$51</f>
@@ -22821,15 +22863,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I16" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="17" spans="5:9">
       <c r="E17" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F17" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G17" t="str">
         <f>菜单SAAS版!$E$52</f>
@@ -22840,15 +22882,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I17" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="18" spans="5:9">
       <c r="E18" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F18" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G18" t="str">
         <f>菜单SAAS版!$E$49</f>
@@ -22859,15 +22901,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I18" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="19" spans="5:9">
       <c r="E19" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F19" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G19" t="str">
         <f>菜单SAAS版!$E$50</f>
@@ -22878,15 +22920,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I19" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="20" spans="5:9">
       <c r="E20" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F20" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G20" t="str">
         <f>菜单SAAS版!$E$45</f>
@@ -22897,15 +22939,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I20" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="21" spans="5:9">
       <c r="E21" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F21" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G21" t="str">
         <f>菜单SAAS版!$E$46</f>
@@ -22916,15 +22958,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I21" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="22" spans="5:9">
       <c r="E22" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F22" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G22" t="str">
         <f>菜单SAAS版!$E$47</f>
@@ -22935,15 +22977,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I22" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="23" spans="5:9">
       <c r="E23" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F23" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G23" t="str">
         <f>菜单SAAS版!$E$8</f>
@@ -22954,15 +22996,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I23" t="s">
-        <v>1561</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="24" spans="5:9">
       <c r="E24" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F24" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G24" t="str">
         <f>菜单SAAS版!$E$27</f>
@@ -22973,15 +23015,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I24" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="25" spans="5:9">
       <c r="E25" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F25" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G25" t="str">
         <f>菜单SAAS版!$E$38</f>
@@ -22992,15 +23034,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I25" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="26" spans="5:9">
       <c r="E26" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F26" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G26" t="str">
         <f>菜单SAAS版!$E$41</f>
@@ -23011,15 +23053,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I26" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="27" spans="5:9">
       <c r="E27" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F27" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G27" t="str">
         <f>菜单SAAS版!$E$36</f>
@@ -23030,15 +23072,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I27" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="28" spans="5:9">
       <c r="E28" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F28" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G28" t="str">
         <f>菜单SAAS版!$E$37</f>
@@ -23049,15 +23091,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I28" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="29" spans="5:9">
       <c r="E29" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F29" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G29" t="str">
         <f>菜单SAAS版!$E$34</f>
@@ -23068,15 +23110,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I29" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="30" spans="5:9">
       <c r="E30" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F30" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G30" t="str">
         <f>菜单SAAS版!$E$35</f>
@@ -23087,15 +23129,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I30" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="31" spans="5:9">
       <c r="E31" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F31" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G31" t="str">
         <f>菜单SAAS版!$E$16</f>
@@ -23106,15 +23148,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I31" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="32" spans="5:9">
       <c r="E32" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F32" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G32" t="str">
         <f>菜单SAAS版!$E$20</f>
@@ -23125,15 +23167,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I32" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="33" spans="5:9">
       <c r="E33" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F33" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G33" t="str">
         <f>菜单SAAS版!$E$21</f>
@@ -23144,15 +23186,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I33" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="34" spans="5:9">
       <c r="E34" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F34" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G34" t="str">
         <f>菜单SAAS版!$E$22</f>
@@ -23163,15 +23205,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I34" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="35" spans="5:9">
       <c r="E35" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F35" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G35" t="str">
         <f>菜单SAAS版!$E$23</f>
@@ -23182,15 +23224,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I35" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="36" spans="5:9">
       <c r="E36" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F36" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G36" t="str">
         <f>菜单SAAS版!$E$24</f>
@@ -23201,15 +23243,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I36" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="37" spans="5:9">
       <c r="E37" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F37" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G37" t="str">
         <f>菜单SAAS版!$E$25</f>
@@ -23220,15 +23262,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I37" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="38" spans="5:9">
       <c r="E38" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F38" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G38" t="str">
         <f>菜单SAAS版!$E$17</f>
@@ -23239,15 +23281,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I38" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="39" spans="5:9">
       <c r="E39" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F39" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G39" t="str">
         <f>菜单SAAS版!$E$26</f>
@@ -23258,15 +23300,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I39" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="40" spans="5:9">
       <c r="E40" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F40" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G40" t="str">
         <f>菜单SAAS版!$E$18</f>
@@ -23277,15 +23319,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I40" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="41" spans="5:9">
       <c r="E41" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F41" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G41" t="str">
         <f>菜单SAAS版!$E$19</f>
@@ -23296,15 +23338,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I41" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="42" spans="5:9">
       <c r="E42" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F42" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G42" t="str">
         <f>菜单SAAS版!$E$9</f>
@@ -23315,15 +23357,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I42" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="43" spans="5:9">
       <c r="E43" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F43" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G43" t="str">
         <f>菜单SAAS版!$E$14</f>
@@ -23334,15 +23376,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I43" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="44" spans="5:9">
       <c r="E44" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F44" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G44" t="str">
         <f>菜单SAAS版!$E$15</f>
@@ -23353,15 +23395,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I44" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="45" spans="5:9">
       <c r="E45" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F45" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G45" t="str">
         <f>菜单SAAS版!$E$32</f>
@@ -23372,15 +23414,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I45" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="46" spans="5:9">
       <c r="E46" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F46" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G46" t="str">
         <f>菜单SAAS版!$E$33</f>
@@ -23391,15 +23433,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I46" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="47" spans="5:9">
       <c r="E47" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F47" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G47" t="str">
         <f>菜单SAAS版!$E$42</f>
@@ -23410,15 +23452,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I47" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="48" spans="5:9">
       <c r="E48" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F48" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G48" t="str">
         <f>菜单SAAS版!$E$43</f>
@@ -23429,15 +23471,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I48" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="49" spans="5:9">
       <c r="E49" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F49" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G49" t="str">
         <f>菜单SAAS版!$E$28</f>
@@ -23448,15 +23490,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I49" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="50" spans="5:9">
       <c r="E50" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F50" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G50" t="str">
         <f>菜单SAAS版!$E$29</f>
@@ -23467,15 +23509,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I50" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="51" spans="5:9">
       <c r="E51" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F51" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G51" t="str">
         <f>菜单SAAS版!$E$40</f>
@@ -23486,15 +23528,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I51" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="52" spans="5:9">
       <c r="E52" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F52" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G52" t="str">
         <f>菜单SAAS版!$E$55</f>
@@ -23505,15 +23547,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I52" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="53" spans="5:9">
       <c r="E53" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F53" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G53" t="str">
         <f>菜单SAAS版!$E$54</f>
@@ -23524,15 +23566,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I53" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="54" spans="5:9">
       <c r="E54" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F54" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G54" t="str">
         <f>菜单SAAS版!$E$12</f>
@@ -23543,15 +23585,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I54" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="55" spans="5:9">
       <c r="E55" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F55" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G55" t="str">
         <f>菜单SAAS版!$E$13</f>
@@ -23562,15 +23604,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I55" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="56" spans="5:9">
       <c r="E56" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F56" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G56" t="str">
         <f>菜单SAAS版!$E$10</f>
@@ -23581,15 +23623,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I56" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="57" spans="5:9">
       <c r="E57" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F57" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G57" t="str">
         <f>菜单SAAS版!$E$11</f>
@@ -23600,15 +23642,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I57" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="58" spans="5:9">
       <c r="E58" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F58" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G58" t="str">
         <f>菜单SAAS版!$E$30</f>
@@ -23619,15 +23661,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I58" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="59" spans="5:9">
       <c r="E59" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F59" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G59" t="str">
         <f>菜单SAAS版!$E$31</f>
@@ -23638,15 +23680,15 @@
         <v>iam_label-8</v>
       </c>
       <c r="I59" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
     <row r="60" customFormat="1" spans="5:9">
       <c r="E60" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F60" t="s">
-        <v>1546</v>
+        <v>1550</v>
       </c>
       <c r="G60" t="str">
         <f>菜单SAAS版!$E$58</f>
@@ -23657,7 +23699,7 @@
         <v>iam_label-9</v>
       </c>
       <c r="I60" t="s">
-        <v>1562</v>
+        <v>1566</v>
       </c>
     </row>
   </sheetData>
@@ -23710,10 +23752,10 @@
         <v>51</v>
       </c>
       <c r="C7" t="s">
-        <v>1563</v>
+        <v>1567</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>1564</v>
+        <v>1568</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>54</v>
@@ -23722,10 +23764,10 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>1435</v>
+        <v>1439</v>
       </c>
       <c r="H7" t="s">
-        <v>1565</v>
+        <v>1569</v>
       </c>
       <c r="I7" t="s">
         <v>56</v>
@@ -23734,63 +23776,63 @@
         <v>57</v>
       </c>
       <c r="K7" t="s">
-        <v>1538</v>
+        <v>1542</v>
       </c>
       <c r="L7" t="s">
-        <v>1539</v>
+        <v>1543</v>
       </c>
       <c r="M7" t="s">
-        <v>1566</v>
+        <v>1570</v>
       </c>
       <c r="N7" t="s">
-        <v>1567</v>
+        <v>1571</v>
       </c>
       <c r="O7" t="s">
-        <v>1537</v>
+        <v>1541</v>
       </c>
       <c r="P7" t="s">
-        <v>1568</v>
+        <v>1572</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>1569</v>
+        <v>1573</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>1570</v>
+        <v>1574</v>
       </c>
       <c r="S7" t="s">
-        <v>1571</v>
+        <v>1575</v>
       </c>
     </row>
     <row r="8" spans="5:19">
       <c r="E8" t="s">
-        <v>1572</v>
+        <v>1576</v>
       </c>
       <c r="F8" t="s">
-        <v>1573</v>
+        <v>1577</v>
       </c>
       <c r="G8" t="s">
-        <v>1551</v>
+        <v>1555</v>
       </c>
       <c r="H8" t="s">
-        <v>1574</v>
+        <v>1578</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
       </c>
       <c r="J8" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="K8" t="s">
         <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>1575</v>
+        <v>1579</v>
       </c>
       <c r="M8" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="N8" t="s">
-        <v>1576</v>
+        <v>1580</v>
       </c>
       <c r="O8" t="s">
         <v>84</v>
@@ -23802,7 +23844,7 @@
         <v>81</v>
       </c>
       <c r="S8" t="s">
-        <v>1577</v>
+        <v>1581</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -23813,24 +23855,24 @@
         <v>51</v>
       </c>
       <c r="C10" t="s">
-        <v>1578</v>
+        <v>1582</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>1579</v>
+        <v>1583</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>54</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>1580</v>
+        <v>1584</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>1581</v>
+        <v>1585</v>
       </c>
     </row>
     <row r="11" spans="5:7">
       <c r="E11" t="s">
-        <v>1560</v>
+        <v>1564</v>
       </c>
       <c r="F11" t="s">
         <v>81</v>

--- a/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="2"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -6501,10 +6501,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -6583,37 +6583,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6627,8 +6634,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6643,45 +6665,23 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6697,7 +6697,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6712,15 +6712,15 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6802,13 +6802,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6820,19 +6826,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6844,7 +6838,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6862,37 +6910,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6904,37 +6952,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6946,7 +6964,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6958,31 +6976,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7089,11 +7089,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7113,17 +7119,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7142,8 +7142,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -7171,163 +7186,148 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="24" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -8043,8 +8043,8 @@
   <sheetPr/>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F58" sqref="F58"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11033,8 +11033,8 @@
         <v>80</v>
       </c>
       <c r="K59" t="str">
-        <f>菜单SAAS版!$E$57</f>
-        <v>iam_menu-57</v>
+        <f>菜单SAAS版!$E$58</f>
+        <v>iam_menu-58</v>
       </c>
       <c r="L59" t="s">
         <v>110</v>
@@ -11078,7 +11078,7 @@
   <sheetPr/>
   <dimension ref="A1:H659"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C640" workbookViewId="0">
+    <sheetView topLeftCell="C640" workbookViewId="0">
       <selection activeCell="F661" sqref="F661"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-menu-user-role-label.xlsx
+++ b/src/main/resources/script/db/init-data/workflow_service/hzero_platform/hzero-menu-user-role-label.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="10670" tabRatio="597" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -6501,12 +6501,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="40">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -6538,6 +6538,20 @@
       <charset val="134"/>
     </font>
     <font>
+      <strike/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <strike/>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
@@ -6576,36 +6590,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6618,9 +6633,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6642,15 +6679,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6658,20 +6696,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -6695,32 +6726,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -6802,7 +6816,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6820,7 +6930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6832,145 +6948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -6983,6 +6979,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7090,6 +7104,65 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -7122,226 +7195,174 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="18" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="9" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="29" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -7352,44 +7373,44 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -7402,7 +7423,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -7805,10 +7826,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="15.5571428571429" style="6" customWidth="1"/>
-    <col min="2" max="2" width="10.3285714285714" style="7" customWidth="1"/>
+    <col min="1" max="1" width="15.5571428571429" style="11" customWidth="1"/>
+    <col min="2" max="2" width="10.3285714285714" style="12" customWidth="1"/>
     <col min="3" max="3" width="28.1071428571429" customWidth="1"/>
-    <col min="4" max="4" width="35.3285714285714" style="8" customWidth="1"/>
+    <col min="4" max="4" width="35.3285714285714" style="13" customWidth="1"/>
     <col min="5" max="5" width="38.5571428571429" customWidth="1"/>
     <col min="6" max="6" width="23.4428571428571" customWidth="1"/>
     <col min="7" max="7" width="21.5571428571429" customWidth="1"/>
@@ -7822,79 +7843,79 @@
   </cols>
   <sheetData>
     <row r="1" ht="64.5" customHeight="1" spans="1:8">
-      <c r="A1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="14"/>
+      <c r="C1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
     </row>
     <row r="2" spans="5:5">
-      <c r="E2" s="12"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" ht="49.5" customHeight="1" spans="3:7">
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="D3" s="18"/>
+      <c r="E3" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
     </row>
     <row r="4" spans="3:7">
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="16" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="23" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="9"/>
+      <c r="A5" s="14"/>
       <c r="C5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="3:5">
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="26" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="3:5">
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="23" t="s">
+      <c r="D8" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24"/>
+      <c r="E8" s="29"/>
     </row>
     <row r="9" ht="49.5" spans="3:6">
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="32" t="s">
         <v>15</v>
       </c>
       <c r="F9" t="s">
@@ -7902,56 +7923,56 @@
       </c>
     </row>
     <row r="10" ht="49.5" spans="3:5">
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="33" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="27" t="s">
+      <c r="E10" s="32" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" ht="66" spans="3:5">
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="27" t="s">
+      <c r="E11" s="32" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="12" spans="3:5">
-      <c r="C12" s="22" t="s">
+      <c r="C12" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="29" t="s">
+      <c r="E12" s="34" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="3:5">
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="29"/>
     </row>
     <row r="14" spans="3:5">
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="29"/>
     </row>
     <row r="15" ht="33" spans="3:5">
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="D15" s="31" t="s">
+      <c r="D15" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="32" t="s">
+      <c r="E15" s="37" t="s">
         <v>28</v>
       </c>
     </row>
@@ -7961,64 +7982,64 @@
       </c>
     </row>
     <row r="19" spans="3:5">
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
     </row>
     <row r="20" spans="3:4">
-      <c r="C20" s="34" t="s">
+      <c r="C20" s="39" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="17" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="21" spans="3:4">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="12" t="s">
+      <c r="D21" s="17" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="22" spans="3:4">
-      <c r="C22" s="34" t="s">
+      <c r="C22" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="8" t="s">
+      <c r="D22" s="13" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="3:4">
-      <c r="C23" s="34" t="s">
+      <c r="C23" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="8" t="s">
+      <c r="D23" s="13" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="25" ht="69" customHeight="1" spans="3:5">
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="13" t="s">
+      <c r="D25" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="13"/>
+      <c r="E25" s="18"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="3:5">
-      <c r="C26" s="23" t="s">
+      <c r="C26" s="28" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="13" t="s">
+      <c r="D26" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="18"/>
     </row>
     <row r="27" ht="49.5" spans="3:3">
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="41" t="s">
         <v>43</v>
       </c>
     </row>
@@ -8043,8 +8064,8 @@
   <sheetPr/>
   <dimension ref="A1:Y59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -10912,158 +10933,158 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" customFormat="1" spans="5:24">
-      <c r="E57" t="s">
+    <row r="57" s="6" customFormat="1" spans="5:24">
+      <c r="E57" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F57" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="G57" t="s">
+      <c r="G57" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="H57" t="s">
+      <c r="H57" s="8" t="s">
         <v>328</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="J57" t="s">
+      <c r="J57" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K57" t="s">
-        <v>81</v>
-      </c>
-      <c r="L57" t="s">
+      <c r="K57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="L57" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="M57" s="5">
+      <c r="M57" s="9">
         <v>1</v>
       </c>
-      <c r="N57" t="s">
+      <c r="N57" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="Q57" t="s">
-        <v>81</v>
-      </c>
-      <c r="R57" t="s">
-        <v>81</v>
-      </c>
-      <c r="S57" t="s">
+      <c r="Q57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S57" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="T57" t="s">
-        <v>81</v>
-      </c>
-      <c r="V57" t="s">
+      <c r="T57" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V57" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="X57" t="s">
+      <c r="X57" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="58" customFormat="1" spans="5:24">
-      <c r="E58" t="s">
+    <row r="58" s="6" customFormat="1" spans="5:24">
+      <c r="E58" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F58" s="8" t="s">
         <v>331</v>
       </c>
-      <c r="G58" t="s">
+      <c r="G58" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="H58" t="s">
+      <c r="H58" s="8" t="s">
         <v>332</v>
       </c>
-      <c r="J58" t="s">
+      <c r="J58" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K58" t="str">
+      <c r="K58" s="8" t="str">
         <f>菜单SAAS版!$E$57</f>
         <v>iam_menu-57</v>
       </c>
-      <c r="L58" t="s">
+      <c r="L58" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="M58" s="5">
+      <c r="M58" s="9">
         <v>70</v>
       </c>
-      <c r="N58" t="s">
+      <c r="N58" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="O58" t="s">
+      <c r="O58" s="8" t="s">
         <v>333</v>
       </c>
-      <c r="P58" t="s">
+      <c r="P58" s="8" t="s">
         <v>334</v>
       </c>
-      <c r="Q58" t="s">
-        <v>81</v>
-      </c>
-      <c r="R58" t="s">
-        <v>81</v>
-      </c>
-      <c r="S58" t="s">
+      <c r="Q58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S58" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="T58" t="s">
-        <v>81</v>
-      </c>
-      <c r="V58" t="s">
+      <c r="T58" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="V58" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="X58" t="s">
+      <c r="X58" s="8" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" customFormat="1" spans="5:24">
-      <c r="E59" t="s">
+    <row r="59" s="6" customFormat="1" spans="5:24">
+      <c r="E59" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F59" s="8" t="s">
         <v>337</v>
       </c>
-      <c r="G59" t="s">
+      <c r="G59" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="H59" t="s">
+      <c r="H59" s="8" t="s">
         <v>338</v>
       </c>
-      <c r="J59" t="s">
+      <c r="J59" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="K59" t="str">
+      <c r="K59" s="8" t="str">
         <f>菜单SAAS版!$E$58</f>
         <v>iam_menu-58</v>
       </c>
-      <c r="L59" t="s">
+      <c r="L59" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="M59" s="5" t="s">
+      <c r="M59" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="N59" t="s">
+      <c r="N59" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="Q59" t="s">
-        <v>81</v>
-      </c>
-      <c r="R59" t="s">
-        <v>81</v>
-      </c>
-      <c r="S59" t="s">
+      <c r="Q59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="S59" s="8" t="s">
         <v>339</v>
       </c>
-      <c r="T59" t="s">
-        <v>81</v>
-      </c>
-      <c r="U59" t="s">
+      <c r="T59" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="U59" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="V59" t="s">
+      <c r="V59" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="X59" t="s">
+      <c r="X59" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -11079,7 +11100,7 @@
   <dimension ref="A1:H659"/>
   <sheetViews>
     <sheetView topLeftCell="C640" workbookViewId="0">
-      <selection activeCell="F661" sqref="F661"/>
+      <selection activeCell="E661" sqref="E661"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="7"/>
@@ -20891,33 +20912,33 @@
         <v>81</v>
       </c>
     </row>
-    <row r="658" spans="5:8">
-      <c r="E658" t="s">
+    <row r="658" s="6" customFormat="1" spans="5:8">
+      <c r="E658" s="7" t="s">
         <v>1431</v>
       </c>
-      <c r="F658" t="str">
+      <c r="F658" s="8" t="str">
         <f>菜单SAAS版!$E$59</f>
         <v>iam_menu-59</v>
       </c>
-      <c r="G658" t="s">
+      <c r="G658" s="8" t="s">
         <v>1432</v>
       </c>
-      <c r="H658" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="659" spans="5:8">
-      <c r="E659" t="s">
+      <c r="H658" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="659" s="6" customFormat="1" spans="5:8">
+      <c r="E659" s="7" t="s">
         <v>1433</v>
       </c>
-      <c r="F659" t="str">
+      <c r="F659" s="8" t="str">
         <f>菜单SAAS版!$E$59</f>
         <v>iam_menu-59</v>
       </c>
-      <c r="G659" t="s">
+      <c r="G659" s="8" t="s">
         <v>1434</v>
       </c>
-      <c r="H659" t="s">
+      <c r="H659" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -20932,8 +20953,8 @@
   <sheetPr/>
   <dimension ref="A1:Y63"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="16.5"/>
@@ -22533,53 +22554,53 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" customFormat="1" spans="5:11">
-      <c r="E62" t="s">
+    <row r="62" s="6" customFormat="1" spans="5:11">
+      <c r="E62" s="7" t="s">
         <v>1536</v>
       </c>
-      <c r="F62" t="str">
+      <c r="F62" s="8" t="str">
         <f>角色权限!$E$9</f>
         <v>iam_role-9</v>
       </c>
-      <c r="G62" t="str">
+      <c r="G62" s="8" t="str">
         <f>菜单SAAS版!E59</f>
         <v>iam_menu-59</v>
       </c>
-      <c r="H62" t="s">
+      <c r="H62" s="8" t="s">
         <v>1486</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="J62" t="s">
+      <c r="J62" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="K62" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" customFormat="1" spans="5:11">
-      <c r="E63" t="s">
+      <c r="K62" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="63" s="6" customFormat="1" spans="5:11">
+      <c r="E63" s="7" t="s">
         <v>1537</v>
       </c>
-      <c r="F63" t="str">
+      <c r="F63" s="8" t="str">
         <f>角色权限!$E$10</f>
         <v>iam_role-10</v>
       </c>
-      <c r="G63" t="str">
+      <c r="G63" s="8" t="str">
         <f>菜单SAAS版!E59</f>
         <v>iam_menu-59</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="8" t="s">
         <v>1486</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="8" t="s">
         <v>1487</v>
       </c>
-      <c r="J63" t="s">
+      <c r="J63" s="8" t="s">
         <v>1488</v>
       </c>
-      <c r="K63" t="s">
+      <c r="K63" s="8" t="s">
         <v>81</v>
       </c>
     </row>
@@ -22594,16 +22615,19 @@
   <sheetPr/>
   <dimension ref="A1:O60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B40" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="4" max="4" width="33.7857142857143" customWidth="1"/>
+    <col min="5" max="5" width="19.3571428571429" customWidth="1"/>
     <col min="6" max="6" width="14.2857142857143" customWidth="1"/>
     <col min="7" max="7" width="20.2857142857143" customWidth="1"/>
     <col min="8" max="8" width="21.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="29.7857142857143" customWidth="1"/>
+    <col min="11" max="11" width="27.2142857142857" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -23684,21 +23708,21 @@
       </c>
     </row>
     <row r="60" customFormat="1" spans="5:9">
-      <c r="E60" t="s">
+      <c r="E60" s="5" t="s">
         <v>1564</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F60" s="5" t="s">
         <v>1550</v>
       </c>
-      <c r="G60" t="str">
+      <c r="G60" s="5" t="str">
         <f>菜单SAAS版!$E$58</f>
         <v>iam_menu-58</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" s="5" t="str">
         <f>菜单标签数据!$E$9</f>
         <v>iam_label-9</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="5" t="s">
         <v>1566</v>
       </c>
     </row>
